--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>880.8884746097272</v>
+        <v>311.5522071246552</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.66295360775301</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.2160238063541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.661544808322667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>701.4400000000055</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.34</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.46902814888773</v>
+        <v>23.71927412272879</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>20.76239749718578</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>16.65075183719856</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.23760250281424</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.92645506346164</v>
+        <v>28.38081893105146</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,146 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.695</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4149999999998</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.605</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.9800000000007</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.475</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.65</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>160.36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>153.76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>219.8350000000007</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>222.0950000000007</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>218.6850000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>214.2750000000005</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>207.585</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>139.9800000000007</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>150.475</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>153.65</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>153.76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>219.8350000000007</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>222.0950000000007</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>218.6850000000007</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>214.2750000000005</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>207.585</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>69.83500000000075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>72.09500000000074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.68500000000074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.27500000000052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>57.58500000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,10 +1915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2121,10 +1926,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2132,133 +1937,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
